--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16316.52498500258</v>
+        <v>3246988.472015512</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16316.52498500258</v>
+        <v>3246988.472015512</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50268.46757452255</v>
+        <v>3095113.846273288</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50268.46757452255</v>
+        <v>3095113.846273288</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267087140.487197</v>
+        <v>50533875.22849254</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13307.04748059985</v>
+        <v>1335959.951764955</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24510.18524440705</v>
+        <v>2313914.229293963</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35726.53868645011</v>
+        <v>3291868.506822973</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47580.52295991164</v>
+        <v>4268361.573302271</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59434.8553935081</v>
+        <v>5244923.923648428</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71289.18782710456</v>
+        <v>6221486.27399458</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83143.52026070101</v>
+        <v>7198048.624340733</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94997.85269429751</v>
+        <v>8174610.974686885</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106910.1951227999</v>
+        <v>9133201.939290786</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118848.7507498934</v>
+        <v>10097249.40321142</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130786.4733689369</v>
+        <v>11061131.09853009</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142724.1959879803</v>
+        <v>12025012.79384876</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154661.9186070238</v>
+        <v>12988894.48916744</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166599.6412260673</v>
+        <v>13952776.18448612</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178537.3638451107</v>
+        <v>14916657.8798048</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
